--- a/Multi-taxa_data/PLITs/3-Relative_cover_functional_group/func_input.xlsx
+++ b/Multi-taxa_data/PLITs/3-Relative_cover_functional_group/func_input.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,24 +385,24 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>submassive</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>encrusting</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hispidose</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>plate</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>submassive</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>corymbose</t>
@@ -415,14 +415,14 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>laminar</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>foliose</t>
@@ -430,22 +430,27 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>branching</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>digitate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>turf</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>CCA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>macroalgae</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>NA</t>
         </is>
       </c>
     </row>
@@ -465,8 +470,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,15 +508,18 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>0</v>
       </c>
     </row>
@@ -529,8 +539,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -538,16 +550,16 @@
         </is>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>14.6</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>52.1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>22.9</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>10.4</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -565,15 +577,18 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="R3">
+        <v>2.1</v>
+      </c>
+      <c r="S3">
         <v>0</v>
       </c>
     </row>
@@ -593,8 +608,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -602,16 +619,16 @@
         </is>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>52.9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.6</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -629,15 +646,18 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="R4">
+        <v>0.7</v>
+      </c>
+      <c r="S4">
         <v>0</v>
       </c>
     </row>
@@ -657,8 +677,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -666,22 +688,22 @@
         </is>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>41.2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>17.6</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -693,15 +715,18 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="R5">
+        <v>0.1</v>
+      </c>
+      <c r="S5">
         <v>0</v>
       </c>
     </row>
@@ -721,8 +746,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D6">
-        <v>2</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -730,42 +757,45 @@
         </is>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>27.3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>34.9</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>27.3</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="R6">
+        <v>0.6</v>
+      </c>
+      <c r="S6">
         <v>0</v>
       </c>
     </row>
@@ -785,8 +815,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D7">
-        <v>3</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -794,42 +826,45 @@
         </is>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>40.2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>29.6</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="R7">
+        <v>0.2</v>
+      </c>
+      <c r="S7">
         <v>0</v>
       </c>
     </row>
@@ -849,8 +884,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -858,16 +895,16 @@
         </is>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -882,18 +919,21 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>12.1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>98.2</v>
       </c>
       <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
         <v>0</v>
       </c>
     </row>
@@ -913,8 +953,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D9">
-        <v>2</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -922,22 +964,22 @@
         </is>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -949,15 +991,18 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="R9">
+        <v>5.9</v>
+      </c>
+      <c r="S9">
         <v>0</v>
       </c>
     </row>
@@ -977,8 +1022,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D10">
-        <v>3</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -986,22 +1033,22 @@
         </is>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>93.2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1013,16 +1060,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>92.5</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>6.2</v>
+      </c>
+      <c r="S10">
+        <v>1.3</v>
       </c>
     </row>
     <row r="11">
@@ -1041,8 +1091,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1050,22 +1102,22 @@
         </is>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>62.2</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1074,18 +1126,21 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>31.7</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="R11">
+        <v>34.1</v>
+      </c>
+      <c r="S11">
         <v>0</v>
       </c>
     </row>
@@ -1105,8 +1160,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D12">
-        <v>2</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1114,22 +1171,22 @@
         </is>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1138,18 +1195,21 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>98.7</v>
       </c>
       <c r="R12">
+        <v>1.3</v>
+      </c>
+      <c r="S12">
         <v>0</v>
       </c>
     </row>
@@ -1169,8 +1229,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D13">
-        <v>3</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1178,16 +1240,16 @@
         </is>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1196,25 +1258,28 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>14.5</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>91.7</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1233,8 +1298,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1242,22 +1309,22 @@
         </is>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>78.3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>15.3</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1269,15 +1336,18 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="R14">
+        <v>10.9</v>
+      </c>
+      <c r="S14">
         <v>0</v>
       </c>
     </row>
@@ -1297,8 +1367,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D15">
-        <v>2</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1306,22 +1378,22 @@
         </is>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1333,15 +1405,18 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="R15">
+        <v>31</v>
+      </c>
+      <c r="S15">
         <v>0</v>
       </c>
     </row>
@@ -1361,8 +1436,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D16">
-        <v>3</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1370,22 +1447,22 @@
         </is>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>8.6</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1394,18 +1471,21 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="R16">
+        <v>12.9</v>
+      </c>
+      <c r="S16">
         <v>0</v>
       </c>
     </row>
@@ -1425,51 +1505,56 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D17">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>G2_Shallow</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>99</v>
+      </c>
+      <c r="R17">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>G2_Shallow</t>
-        </is>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
+      <c r="S17">
         <v>0</v>
       </c>
     </row>
@@ -1489,8 +1574,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D18">
-        <v>2</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1498,10 +1585,10 @@
         </is>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1516,24 +1603,27 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="R18">
+        <v>2.9</v>
+      </c>
+      <c r="S18">
         <v>0</v>
       </c>
     </row>
@@ -1553,8 +1643,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D19">
-        <v>3</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1562,16 +1654,16 @@
         </is>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1589,15 +1681,18 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>83.8</v>
       </c>
       <c r="R19">
+        <v>16.2</v>
+      </c>
+      <c r="S19">
         <v>0</v>
       </c>
     </row>
@@ -1617,8 +1712,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1626,43 +1723,46 @@
         </is>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>22.5</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1681,8 +1781,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D21">
-        <v>2</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1690,43 +1792,46 @@
         </is>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>10.3</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>37.9</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>8.6</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>16.7</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>17.6</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1745,8 +1850,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D22">
-        <v>3</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1754,43 +1861,46 @@
         </is>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>34.3</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>16.7</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>10.5</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>17.5</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>90.3</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1809,8 +1919,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1818,43 +1930,46 @@
         </is>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>42.6</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>6.4</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1873,8 +1988,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D24">
-        <v>2</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1882,43 +1999,46 @@
         </is>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>53.8</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>87.7</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>12.3</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1937,8 +2057,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D25">
-        <v>3</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1946,43 +2068,46 @@
         </is>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>36.9</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>10.6</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>22.1</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>90.5</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>9.5</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2001,8 +2126,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2010,10 +2137,10 @@
         </is>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2028,25 +2155,28 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>96.7</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2.2</v>
+      </c>
+      <c r="S26">
+        <v>1.1</v>
       </c>
     </row>
     <row r="27">
@@ -2065,8 +2195,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D27">
-        <v>2</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2074,43 +2206,46 @@
         </is>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>4.9</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2129,8 +2264,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D28">
-        <v>3</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2138,43 +2275,46 @@
         </is>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>22.7</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>43.5</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>95.7</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>4.3</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2193,8 +2333,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2202,42 +2344,45 @@
         </is>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>48.6</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>94.8</v>
       </c>
       <c r="R29">
+        <v>5.2</v>
+      </c>
+      <c r="S29">
         <v>0</v>
       </c>
     </row>
@@ -2257,8 +2402,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D30">
-        <v>2</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2266,43 +2413,46 @@
         </is>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>36.3</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>7.7</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>37.2</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>84.8</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>15.2</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2321,8 +2471,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D31">
-        <v>3</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2330,43 +2482,46 @@
         </is>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>56.1</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>19.6</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>11.2</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2385,8 +2540,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2394,43 +2551,46 @@
         </is>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>46.9</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>78.5</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="S32">
+        <v>0.4</v>
       </c>
     </row>
     <row r="33">
@@ -2449,8 +2609,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D33">
-        <v>2</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2458,22 +2620,22 @@
         </is>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>27.6</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>31.1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2485,16 +2647,19 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>18.9</v>
+      </c>
+      <c r="S33">
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -2513,8 +2678,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D34">
-        <v>3</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2522,43 +2689,46 @@
         </is>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>37.9</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>37.3</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>14.2</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>86.7</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>13.3</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2577,8 +2747,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2586,43 +2758,46 @@
         </is>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>31.9</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>11.2</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>94.8</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>0.2</v>
       </c>
     </row>
     <row r="36">
@@ -2641,31 +2816,33 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D36">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>S1_Shallow</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>25.4</v>
+      </c>
+      <c r="G36">
+        <v>35.5</v>
+      </c>
+      <c r="H36">
+        <v>7.7</v>
+      </c>
+      <c r="I36">
         <v>2</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>S1_Shallow</t>
-        </is>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>22.8</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2677,16 +2854,19 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>94.2</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>5.8</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2705,8 +2885,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D37">
-        <v>3</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2714,43 +2896,46 @@
         </is>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>46.5</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>10.5</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>2.4</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2769,8 +2954,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D38">
-        <v>1</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2778,22 +2965,22 @@
         </is>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>64.2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2805,16 +2992,19 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>12.6</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2833,8 +3023,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D39">
-        <v>2</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2842,22 +3034,22 @@
         </is>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>36.3</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>48.4</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2866,19 +3058,22 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>87.8</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>12.2</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2897,8 +3092,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D40">
-        <v>3</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2906,22 +3103,22 @@
         </is>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>37.7</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2933,16 +3130,19 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>21.1</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2961,8 +3161,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D41">
-        <v>1</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2970,43 +3172,46 @@
         </is>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>17.6</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>31.4</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>15.2</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3025,8 +3230,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D42">
-        <v>2</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3034,43 +3241,46 @@
         </is>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>18.8</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3089,8 +3299,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D43">
-        <v>3</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3098,43 +3310,46 @@
         </is>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>58.9</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>32.9</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>85.5</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>14.5</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3153,8 +3368,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D44">
-        <v>1</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3162,43 +3379,46 @@
         </is>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>13.5</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>3.6</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3217,8 +3437,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D45">
-        <v>2</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3226,22 +3448,22 @@
         </is>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>12.4</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>21.7</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -3253,16 +3475,19 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3281,8 +3506,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D46">
-        <v>3</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3290,43 +3517,46 @@
         </is>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>11.3</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>38.2</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>10.1</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3345,8 +3575,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D47">
-        <v>1</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3354,22 +3586,22 @@
         </is>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>51.1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>33.3</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -3381,16 +3613,19 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>11.1</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3409,8 +3644,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D48">
-        <v>2</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3418,22 +3655,22 @@
         </is>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -3445,15 +3682,18 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
         <v>0</v>
       </c>
     </row>
@@ -3473,8 +3713,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D49">
-        <v>3</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3482,10 +3724,10 @@
         </is>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3494,31 +3736,34 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>15.9</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>0.2</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3537,8 +3782,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D50">
-        <v>1</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3546,43 +3793,46 @@
         </is>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>13.7</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3601,8 +3851,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D51">
-        <v>2</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3610,42 +3862,45 @@
         </is>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>20.1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>25.7</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>97.7</v>
       </c>
       <c r="R51">
+        <v>2.3</v>
+      </c>
+      <c r="S51">
         <v>0</v>
       </c>
     </row>
@@ -3665,8 +3920,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D52">
-        <v>3</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3674,42 +3931,45 @@
         </is>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>12.8</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="R52">
+        <v>11.4</v>
+      </c>
+      <c r="S52">
         <v>0</v>
       </c>
     </row>
@@ -3729,8 +3989,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D53">
-        <v>1</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3738,43 +4000,46 @@
         </is>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>12.2</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>58.7</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>10.4</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>87.3</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>12.7</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3793,8 +4058,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D54">
-        <v>2</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3802,43 +4069,46 @@
         </is>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>7.7</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>53.5</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>24.1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <v>16.9</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3857,8 +4127,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D55">
-        <v>3</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3866,16 +4138,16 @@
         </is>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>14.5</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3893,16 +4165,19 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>3.9</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3921,8 +4196,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D56">
-        <v>1</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3930,43 +4207,46 @@
         </is>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>28.6</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>31.6</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>55.5</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>44.5</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3985,8 +4265,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D57">
-        <v>2</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3994,43 +4276,46 @@
         </is>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>10.4</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>13.3</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>75.3</v>
       </c>
       <c r="R57">
-        <v>1</v>
+        <v>24.7</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -4049,52 +4334,57 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D58">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>YO_Shallow</t>
+        </is>
+      </c>
+      <c r="F58">
         <v>3</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>YO_Shallow</t>
-        </is>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
       <c r="G58">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>11.6</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>16.4</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>90.7</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4113,8 +4403,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D59">
-        <v>1</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -4122,22 +4414,22 @@
         </is>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -4149,16 +4441,19 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>18.5</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="S59">
+        <v>7.9</v>
       </c>
     </row>
     <row r="60">
@@ -4177,8 +4472,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D60">
-        <v>2</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4186,43 +4483,46 @@
         </is>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>10.8</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>11.3</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>13.4</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>90.2</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>4.9</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -4241,8 +4541,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D61">
-        <v>3</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4250,22 +4552,22 @@
         </is>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>35.7</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>14.7</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>33.6</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>11.1</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -4277,16 +4579,19 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>89.8</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="S61">
+        <v>0.4</v>
       </c>
     </row>
     <row r="62">
@@ -4305,8 +4610,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D62">
-        <v>1</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4314,43 +4621,46 @@
         </is>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>15.7</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>14.7</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>34.4</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>20.1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>15.4</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4369,8 +4679,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D63">
-        <v>2</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4378,43 +4690,46 @@
         </is>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>13.4</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>22.8</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>28.6</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>14.5</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>17.1</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4433,8 +4748,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D64">
-        <v>3</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4442,43 +4759,46 @@
         </is>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>12.6</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>18.4</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>11.4</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>80.7</v>
       </c>
       <c r="R64">
-        <v>1</v>
+        <v>19.3</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4497,8 +4817,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D65">
-        <v>1</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -4506,43 +4828,46 @@
         </is>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>14.5</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>23.1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>31.2</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>88.8</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="S65">
+        <v>0.2</v>
       </c>
     </row>
     <row r="66">
@@ -4561,8 +4886,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D66">
-        <v>2</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -4570,10 +4897,10 @@
         </is>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -4582,31 +4909,34 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>71.3</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>10.6</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4625,8 +4955,10 @@
           <t>Deep</t>
         </is>
       </c>
-      <c r="D67">
-        <v>3</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4634,43 +4966,46 @@
         </is>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>59.1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>21.6</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4689,8 +5024,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D68">
-        <v>1</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4698,43 +5035,46 @@
         </is>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>62.3</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>17.6</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4753,8 +5093,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D69">
-        <v>2</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4762,43 +5104,46 @@
         </is>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>9.6</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>23.3</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>35.4</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4817,8 +5162,10 @@
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D70">
-        <v>3</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4826,43 +5173,46 @@
         </is>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>38.7</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>25.6</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>64.7</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>35.3</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Multi-taxa_data/PLITs/3-Relative_cover_functional_group/func_input.xlsx
+++ b/Multi-taxa_data/PLITs/3-Relative_cover_functional_group/func_input.xlsx
@@ -5068,10 +5068,10 @@
         <v>2.5</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="R68">
-        <v>100</v>
+        <v>9.4</v>
       </c>
       <c r="S68">
         <v>0</v>
